--- a/Result/MC_1000_WTP_mean.xlsx
+++ b/Result/MC_1000_WTP_mean.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>94614.77836378926</v>
+        <v>94701.67450617735</v>
       </c>
       <c r="C2">
-        <v>132323.7929822228</v>
+        <v>132851.7236176741</v>
       </c>
       <c r="D2">
-        <v>170376.9582008695</v>
+        <v>170398.1185211762</v>
       </c>
       <c r="E2">
-        <v>208126.5278097258</v>
+        <v>208470.3903877973</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>151425.862935184</v>
+        <v>151445.3190464353</v>
       </c>
       <c r="C3">
-        <v>151199.6600254847</v>
+        <v>151914.5981190784</v>
       </c>
       <c r="D3">
-        <v>150931.0374759885</v>
+        <v>151520.8665597799</v>
       </c>
       <c r="E3">
-        <v>151349.4459343873</v>
+        <v>150965.7573774558</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>153507.2419236453</v>
+        <v>153752.3870184295</v>
       </c>
       <c r="C4">
-        <v>152163.7086027428</v>
+        <v>152294.0022449072</v>
       </c>
       <c r="D4">
-        <v>150538.1139369676</v>
+        <v>151060.9764170379</v>
       </c>
       <c r="E4">
-        <v>148642.4029522159</v>
+        <v>148724.5946586255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>110131.4864400197</v>
+        <v>110308.4819685971</v>
       </c>
       <c r="C5">
-        <v>137551.2536093741</v>
+        <v>137324.2380852581</v>
       </c>
       <c r="D5">
-        <v>165023.3182441711</v>
+        <v>165595.9489385562</v>
       </c>
       <c r="E5">
-        <v>193198.3325889054</v>
+        <v>192479.2515701521</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>156668.3249510299</v>
+        <v>157743.0024992794</v>
       </c>
       <c r="C6">
-        <v>153068.5641796793</v>
+        <v>153084.2700359791</v>
       </c>
       <c r="D6">
-        <v>149521.9560659154</v>
+        <v>149586.628175473</v>
       </c>
       <c r="E6">
-        <v>145597.1215230467</v>
+        <v>145414.2767938693</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>153893.1404641892</v>
+        <v>154205.3411579462</v>
       </c>
       <c r="C7">
-        <v>152544.0708722988</v>
+        <v>152655.001215841</v>
       </c>
       <c r="D7">
-        <v>150394.3417359678</v>
+        <v>150636.1257271708</v>
       </c>
       <c r="E7">
-        <v>148126.1022894906</v>
+        <v>148315.8861493442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>126693.1301879972</v>
+        <v>126946.6080677593</v>
       </c>
       <c r="C8">
-        <v>142983.3292295538</v>
+        <v>143402.7364955108</v>
       </c>
       <c r="D8">
-        <v>159336.404939639</v>
+        <v>159404.5350245739</v>
       </c>
       <c r="E8">
-        <v>175843.2895299957</v>
+        <v>175786.7603708</v>
       </c>
     </row>
   </sheetData>
